--- a/data/trans_orig/P1417-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1417-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4796</v>
+        <v>5327</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001911592981175483</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009706422093871365</v>
+        <v>0.0107828002689612</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5182</v>
+        <v>5152</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00193208376486493</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01108560277636706</v>
+        <v>0.01102121871362747</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5579</v>
+        <v>6528</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001921555217544566</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00580192037305994</v>
+        <v>0.006788729122183848</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>493120</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>489268</v>
+        <v>488737</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>494064</v>
@@ -824,7 +824,7 @@
         <v>0.9980884070188245</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9902935779061287</v>
+        <v>0.9892171997310384</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>466586</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>462307</v>
+        <v>462337</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>467489</v>
@@ -845,7 +845,7 @@
         <v>0.998067916235135</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9889143972236335</v>
+        <v>0.9889787812863732</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>959705</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>955974</v>
+        <v>955025</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>961553</v>
@@ -866,7 +866,7 @@
         <v>0.9980784447824554</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9941980796269398</v>
+        <v>0.9932112708778161</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5024</v>
+        <v>5646</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00136322367341644</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.006830680974809193</v>
+        <v>0.007676066795552806</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -982,19 +982,19 @@
         <v>9210</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4898</v>
+        <v>4400</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17136</v>
+        <v>16764</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01472408304702435</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007829980935194922</v>
+        <v>0.007034962327832964</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02739665061417392</v>
+        <v>0.02680054530622136</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -1003,19 +1003,19 @@
         <v>10212</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5236</v>
+        <v>5035</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18463</v>
+        <v>18522</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007503740094949548</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003846873522507856</v>
+        <v>0.003699311444329229</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01356601985757283</v>
+        <v>0.01360937429406362</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>734486</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>730465</v>
+        <v>729843</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>735489</v>
@@ -1041,7 +1041,7 @@
         <v>0.9986367763265835</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9931693190251908</v>
+        <v>0.992323933204447</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,19 +1053,19 @@
         <v>616284</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>608358</v>
+        <v>608730</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>620596</v>
+        <v>621094</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9852759169529757</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9726033493858262</v>
+        <v>0.9731994546937787</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9921700190648052</v>
+        <v>0.9929650376721669</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1284</v>
@@ -1074,19 +1074,19 @@
         <v>1350770</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1342519</v>
+        <v>1342460</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1355746</v>
+        <v>1355947</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9924962599050504</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9864339801424271</v>
+        <v>0.9863906257059363</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9961531264774921</v>
+        <v>0.9963006885556708</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5247</v>
+        <v>4929</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001380891638838953</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008215077436654346</v>
+        <v>0.007717467633306398</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1199,19 +1199,19 @@
         <v>12470</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6946</v>
+        <v>6492</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22902</v>
+        <v>22387</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01807989320408266</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01006972848437034</v>
+        <v>0.009412404074063312</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03320431882645365</v>
+        <v>0.03245751519083767</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1220,19 +1220,19 @@
         <v>13352</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6817</v>
+        <v>7108</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22778</v>
+        <v>24049</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01005142592481393</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005131434957657299</v>
+        <v>0.005350491482926001</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01714682088845935</v>
+        <v>0.01810373698034863</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>637786</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>633421</v>
+        <v>633739</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>638668</v>
@@ -1258,7 +1258,7 @@
         <v>0.9986191083611611</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9917849225633456</v>
+        <v>0.9922825323666941</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,19 +1270,19 @@
         <v>677274</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>666842</v>
+        <v>667357</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>682798</v>
+        <v>683252</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9819201067959173</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9667956811735466</v>
+        <v>0.9675424848091623</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9899302715156297</v>
+        <v>0.9905875959259367</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1259</v>
@@ -1291,19 +1291,19 @@
         <v>1315060</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1305634</v>
+        <v>1304363</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1321595</v>
+        <v>1321304</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9899485740751861</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9828531791115408</v>
+        <v>0.9818962630196516</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9948685650423428</v>
+        <v>0.9946495085170741</v>
       </c>
     </row>
     <row r="12">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6310</v>
+        <v>5986</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003502209466212049</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01215508033900764</v>
+        <v>0.01152954174785016</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1416,19 +1416,19 @@
         <v>6736</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2865</v>
+        <v>2870</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12824</v>
+        <v>12557</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01306400516847522</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005555612847672884</v>
+        <v>0.00556681903419752</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02486973325937633</v>
+        <v>0.02435146847319889</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1437,19 +1437,19 @@
         <v>8555</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3868</v>
+        <v>4628</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15527</v>
+        <v>16263</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008266913389175651</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003737623998083152</v>
+        <v>0.00447255942581797</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01500488314889927</v>
+        <v>0.01571628220336629</v>
       </c>
     </row>
     <row r="14">
@@ -1466,7 +1466,7 @@
         <v>517329</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>512837</v>
+        <v>513161</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>519147</v>
@@ -1475,7 +1475,7 @@
         <v>0.996497790533788</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.987844919660992</v>
+        <v>0.9884704582521507</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1487,19 +1487,19 @@
         <v>508906</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>502818</v>
+        <v>503085</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>512777</v>
+        <v>512772</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9869359948315248</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9751302667406236</v>
+        <v>0.9756485315268011</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9944443871523272</v>
+        <v>0.9944331809658025</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>977</v>
@@ -1508,19 +1508,19 @@
         <v>1026234</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1019262</v>
+        <v>1018526</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1030921</v>
+        <v>1030161</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9917330866108244</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.984995116851101</v>
+        <v>0.9842837177966338</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.996262376001917</v>
+        <v>0.9955274405741821</v>
       </c>
     </row>
     <row r="15">
@@ -1625,19 +1625,19 @@
         <v>9176</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4097</v>
+        <v>4226</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17037</v>
+        <v>16483</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02271406285485469</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01014064326918593</v>
+        <v>0.01046161361803772</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04217169679574843</v>
+        <v>0.04080169832483262</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -1646,19 +1646,19 @@
         <v>9176</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4896</v>
+        <v>4351</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15983</v>
+        <v>17754</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0116051715890119</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006191382864632861</v>
+        <v>0.005503097561368075</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02021396926287315</v>
+        <v>0.02245363724570063</v>
       </c>
     </row>
     <row r="17">
@@ -1688,19 +1688,19 @@
         <v>394810</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>386949</v>
+        <v>387503</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>399889</v>
+        <v>399760</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9772859371451453</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9578283032042515</v>
+        <v>0.9591983016751674</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.989859356730814</v>
+        <v>0.9895383863819622</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>779</v>
@@ -1709,19 +1709,19 @@
         <v>781520</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>774713</v>
+        <v>772942</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>785800</v>
+        <v>786345</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9883948284109881</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9797860307371267</v>
+        <v>0.9775463627542993</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9938086171353672</v>
+        <v>0.9944969024386319</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>4333</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1633</v>
+        <v>1592</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10751</v>
+        <v>11896</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01480976460347209</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005581066062348003</v>
+        <v>0.005440535838087142</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03674389699923267</v>
+        <v>0.04065824223952832</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -1834,19 +1834,19 @@
         <v>6530</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2744</v>
+        <v>2781</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12492</v>
+        <v>13669</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01904191157488192</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008002730858319325</v>
+        <v>0.008109979520481158</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03642703584054649</v>
+        <v>0.03985919825622974</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -1855,19 +1855,19 @@
         <v>10863</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6006</v>
+        <v>5299</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19846</v>
+        <v>19152</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01709349121830197</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009450306093435237</v>
+        <v>0.008338501174597239</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03122753763104599</v>
+        <v>0.03013665017162697</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>288250</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>281832</v>
+        <v>280687</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>290950</v>
+        <v>290991</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9851902353965279</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9632561030007675</v>
+        <v>0.959341757760472</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.994418933937652</v>
+        <v>0.9945594641619129</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>364</v>
@@ -1905,19 +1905,19 @@
         <v>336404</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>330442</v>
+        <v>329265</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>340190</v>
+        <v>340153</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9809580884251181</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9635729641594535</v>
+        <v>0.9601408017437695</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9919972691416807</v>
+        <v>0.9918900204795186</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>663</v>
@@ -1926,19 +1926,19 @@
         <v>624654</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>615671</v>
+        <v>616365</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>629511</v>
+        <v>630218</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9829065087816981</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9687724623689538</v>
+        <v>0.9698633498283726</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9905496939065646</v>
+        <v>0.9916614988254028</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>4501</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1034</v>
+        <v>1045</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10935</v>
+        <v>11908</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02144403871422694</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004926363348869492</v>
+        <v>0.00498028638957469</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05210236662591246</v>
+        <v>0.05673861204943682</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2051,19 +2051,19 @@
         <v>12647</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6934</v>
+        <v>6763</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22184</v>
+        <v>21761</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03787493443057797</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02076726267705634</v>
+        <v>0.02025496520142341</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06643827671614011</v>
+        <v>0.06517193666896243</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -2072,19 +2072,19 @@
         <v>17147</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9782</v>
+        <v>9968</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26972</v>
+        <v>27981</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03153322262803131</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0179880984680498</v>
+        <v>0.01833073287128907</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04960075020375353</v>
+        <v>0.05145477283494918</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>205382</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>198948</v>
+        <v>197975</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>208849</v>
+        <v>208838</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.978555961285773</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9478976333740874</v>
+        <v>0.9432613879505638</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9950736366511306</v>
+        <v>0.9950197136104253</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>279</v>
@@ -2122,19 +2122,19 @@
         <v>321261</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>311724</v>
+        <v>312147</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>326974</v>
+        <v>327145</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.962125065569422</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9335617232838599</v>
+        <v>0.9348280633310374</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9792327373229436</v>
+        <v>0.9797450347985767</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>495</v>
@@ -2143,19 +2143,19 @@
         <v>526644</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>516819</v>
+        <v>515810</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>534009</v>
+        <v>533823</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9684667773719687</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9503992497962461</v>
+        <v>0.9485452271650507</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9820119015319501</v>
+        <v>0.9816692671287109</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>13481</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7432</v>
+        <v>7665</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23119</v>
+        <v>23028</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004114397798215904</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002268351721529086</v>
+        <v>0.002339409471686419</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.007055784477338089</v>
+        <v>0.007028167501558786</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>55</v>
@@ -2268,19 +2268,19 @@
         <v>57673</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44062</v>
+        <v>44840</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>74506</v>
+        <v>74635</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01706705025658779</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01303919915510766</v>
+        <v>0.01326929291945971</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02204848391161074</v>
+        <v>0.02208654957310167</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>68</v>
@@ -2289,19 +2289,19 @@
         <v>71154</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54557</v>
+        <v>54281</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>89843</v>
+        <v>88905</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01069061083892849</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008196931786894681</v>
+        <v>0.008155503519834689</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01349864006524869</v>
+        <v>0.0133577148242824</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>3263062</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3253424</v>
+        <v>3253515</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3269111</v>
+        <v>3268878</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9958856022017841</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9929442155226622</v>
+        <v>0.9929718324984416</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9977316482784709</v>
+        <v>0.9976605905283137</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3242</v>
@@ -2339,19 +2339,19 @@
         <v>3321524</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3304691</v>
+        <v>3304562</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3335135</v>
+        <v>3334357</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9829329497434122</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9779515160883894</v>
+        <v>0.9779134504268989</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9869608008448926</v>
+        <v>0.9867307070805407</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6443</v>
@@ -2360,19 +2360,19 @@
         <v>6584587</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6565898</v>
+        <v>6566836</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6601184</v>
+        <v>6601460</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9893093891610715</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9865013599347514</v>
+        <v>0.9866422851757177</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9918030682131054</v>
+        <v>0.9918444964801655</v>
       </c>
     </row>
     <row r="27">
@@ -2720,19 +2720,19 @@
         <v>3892</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8993</v>
+        <v>9976</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009045343224278775</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002285959977001746</v>
+        <v>0.002289701255384044</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02090202844291532</v>
+        <v>0.02318673607255057</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -2741,19 +2741,19 @@
         <v>3892</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9272</v>
+        <v>9763</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00440036413845971</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001103047430681298</v>
+        <v>0.001109985550856707</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01048380647487225</v>
+        <v>0.01103900319674843</v>
       </c>
     </row>
     <row r="5">
@@ -2783,19 +2783,19 @@
         <v>426338</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>421237</v>
+        <v>420254</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>429247</v>
+        <v>429245</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9909546567757213</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9790979715570847</v>
+        <v>0.9768132639274495</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9977140400229982</v>
+        <v>0.997710298744616</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>863</v>
@@ -2804,19 +2804,19 @@
         <v>880484</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>875104</v>
+        <v>874613</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>883400</v>
+        <v>883394</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9955996358615403</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9895161935251281</v>
+        <v>0.9889609968032518</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9988969525693187</v>
+        <v>0.9988900144491434</v>
       </c>
     </row>
     <row r="6">
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4869</v>
+        <v>5491</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001395510335588612</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007085761389167567</v>
+        <v>0.007991181029899416</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -2929,19 +2929,19 @@
         <v>10922</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5665</v>
+        <v>5792</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19681</v>
+        <v>19867</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01789662481505015</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009283819490221125</v>
+        <v>0.009490631348159553</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03224989921831936</v>
+        <v>0.03255470221981626</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -2950,19 +2950,19 @@
         <v>11880</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6062</v>
+        <v>6720</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22163</v>
+        <v>20703</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009157450424777879</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004672995984994933</v>
+        <v>0.005179740940506682</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01708300590232882</v>
+        <v>0.01595824856113817</v>
       </c>
     </row>
     <row r="8">
@@ -2979,7 +2979,7 @@
         <v>686128</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>682218</v>
+        <v>681596</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>687087</v>
@@ -2988,7 +2988,7 @@
         <v>0.9986044896644114</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9929142386108324</v>
+        <v>0.9920088189701002</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -3000,19 +3000,19 @@
         <v>599333</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>590574</v>
+        <v>590388</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>604590</v>
+        <v>604463</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9821033751849498</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9677501007816806</v>
+        <v>0.9674452977801837</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9907161805097788</v>
+        <v>0.9905093686518405</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1227</v>
@@ -3021,19 +3021,19 @@
         <v>1285462</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1275179</v>
+        <v>1276639</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1291280</v>
+        <v>1290622</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9908425495752221</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9829169940976714</v>
+        <v>0.9840417514388619</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9953270040150052</v>
+        <v>0.9948202590594933</v>
       </c>
     </row>
     <row r="9">
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5688</v>
+        <v>5198</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001509933433200591</v>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008341543463192356</v>
+        <v>0.007622668029662944</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -3146,19 +3146,19 @@
         <v>28244</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19107</v>
+        <v>18763</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39659</v>
+        <v>40122</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03980437085484056</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02692755363246625</v>
+        <v>0.02644209431326865</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05589138754483819</v>
+        <v>0.05654313452655572</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -3167,19 +3167,19 @@
         <v>29274</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20222</v>
+        <v>20263</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42592</v>
+        <v>41717</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02103848457662446</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01453315211471612</v>
+        <v>0.01456275934180072</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03061005684919869</v>
+        <v>0.02998111361728257</v>
       </c>
     </row>
     <row r="11">
@@ -3196,7 +3196,7 @@
         <v>680833</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>676175</v>
+        <v>676665</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>681863</v>
@@ -3205,7 +3205,7 @@
         <v>0.9984900665667994</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9916584565368076</v>
+        <v>0.9923773319703371</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3217,19 +3217,19 @@
         <v>681330</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>669915</v>
+        <v>669452</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>690467</v>
+        <v>690811</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9601956291451594</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9441086124551619</v>
+        <v>0.9434568654734444</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9730724463675338</v>
+        <v>0.9735579056867316</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1289</v>
@@ -3238,19 +3238,19 @@
         <v>1362163</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1348845</v>
+        <v>1349720</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1371215</v>
+        <v>1371174</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9789615154233755</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9693899431508013</v>
+        <v>0.9700188863827172</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9854668478852838</v>
+        <v>0.9854372406581993</v>
       </c>
     </row>
     <row r="12">
@@ -3342,19 +3342,19 @@
         <v>3109</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>965</v>
+        <v>982</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8468</v>
+        <v>8302</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00505895037550494</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001569944927719743</v>
+        <v>0.001598026423557937</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01377793774313341</v>
+        <v>0.01350811091677845</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -3363,19 +3363,19 @@
         <v>15905</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9311</v>
+        <v>9434</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26852</v>
+        <v>27651</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02593718572445187</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01518388385393823</v>
+        <v>0.0153848407670381</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04378928151127565</v>
+        <v>0.04509156754623209</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -3384,19 +3384,19 @@
         <v>19014</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11657</v>
+        <v>11591</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31225</v>
+        <v>30155</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01548617093161447</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009494272891350398</v>
+        <v>0.009440164914523885</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02543073149363409</v>
+        <v>0.02455983809815534</v>
       </c>
     </row>
     <row r="14">
@@ -3413,19 +3413,19 @@
         <v>611508</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>606149</v>
+        <v>606315</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>613652</v>
+        <v>613635</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.994941049624495</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9862220622568667</v>
+        <v>0.9864918890832212</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9984300550722802</v>
+        <v>0.9984019735764419</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>523</v>
@@ -3434,19 +3434,19 @@
         <v>597312</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>586365</v>
+        <v>585566</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>603906</v>
+        <v>603783</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9740628142755481</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9562107184887249</v>
+        <v>0.9549084324537673</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9848161161460619</v>
+        <v>0.9846151592329617</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1068</v>
@@ -3455,19 +3455,19 @@
         <v>1208820</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1196609</v>
+        <v>1197679</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1216177</v>
+        <v>1216243</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9845138290683856</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9745692685063659</v>
+        <v>0.9754401619018448</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9905057271086496</v>
+        <v>0.9905598350854762</v>
       </c>
     </row>
     <row r="15">
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7011</v>
+        <v>7110</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004677979093442583</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01632678359261918</v>
+        <v>0.01655768213051424</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -3580,19 +3580,19 @@
         <v>11553</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6192</v>
+        <v>6226</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19942</v>
+        <v>20194</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02579947395598627</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01382774213819763</v>
+        <v>0.01390282985497858</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04453341196008332</v>
+        <v>0.04509696359962653</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -3601,19 +3601,19 @@
         <v>13562</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7387</v>
+        <v>8136</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22619</v>
+        <v>22826</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01545988857758029</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008420910577331639</v>
+        <v>0.009275131188963653</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02578421098594924</v>
+        <v>0.02602058025320677</v>
       </c>
     </row>
     <row r="17">
@@ -3630,7 +3630,7 @@
         <v>427420</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>422418</v>
+        <v>422319</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>429429</v>
@@ -3639,7 +3639,7 @@
         <v>0.9953220209065574</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9836732164073808</v>
+        <v>0.9834423178694858</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3651,19 +3651,19 @@
         <v>436247</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>427858</v>
+        <v>427606</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>441608</v>
+        <v>441574</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9742005260440137</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9554665880399165</v>
+        <v>0.9549030364003732</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9861722578618024</v>
+        <v>0.9860971701450213</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>786</v>
@@ -3672,19 +3672,19 @@
         <v>863667</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>854610</v>
+        <v>854403</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>869842</v>
+        <v>869093</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9845401114224197</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9742157890140507</v>
+        <v>0.9739794197467929</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9915790894226684</v>
+        <v>0.9907248688110363</v>
       </c>
     </row>
     <row r="18">
@@ -3776,19 +3776,19 @@
         <v>6133</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2142</v>
+        <v>2087</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12845</v>
+        <v>13408</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01979644754039785</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006913849352089369</v>
+        <v>0.006735748953605829</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04146503739673608</v>
+        <v>0.04328095699389903</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -3797,19 +3797,19 @@
         <v>10720</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5036</v>
+        <v>5939</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19695</v>
+        <v>19460</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03028306993596397</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01422752750380615</v>
+        <v>0.01677787482649695</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05563737687919024</v>
+        <v>0.05497256682690004</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -3818,19 +3818,19 @@
         <v>16853</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9734</v>
+        <v>9878</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26737</v>
+        <v>27996</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02538897846471016</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01466450405616483</v>
+        <v>0.01488151328763781</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04027939027267586</v>
+        <v>0.04217627574409852</v>
       </c>
     </row>
     <row r="20">
@@ -3847,19 +3847,19 @@
         <v>303653</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>296941</v>
+        <v>296378</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>307644</v>
+        <v>307699</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9802035524596021</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9585349626032642</v>
+        <v>0.9567190430061009</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9930861506479107</v>
+        <v>0.9932642510463942</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>334</v>
@@ -3868,19 +3868,19 @@
         <v>343276</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>334301</v>
+        <v>334536</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>348960</v>
+        <v>348057</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.969716930064036</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9443626231208098</v>
+        <v>0.9450274331730998</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9857724724961937</v>
+        <v>0.9832221251735029</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>610</v>
@@ -3889,19 +3889,19 @@
         <v>646929</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>637045</v>
+        <v>635786</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>654048</v>
+        <v>653904</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9746110215352899</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9597206097273251</v>
+        <v>0.9578237242559015</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9853354959438353</v>
+        <v>0.9851184867123621</v>
       </c>
     </row>
     <row r="21">
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7412</v>
+        <v>7342</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008345727340173493</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02966622086042852</v>
+        <v>0.02938426896791397</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -4014,19 +4014,19 @@
         <v>15324</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8855</v>
+        <v>8880</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24993</v>
+        <v>26470</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03939521609228134</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02276396973958953</v>
+        <v>0.02282869624410432</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06425222622322892</v>
+        <v>0.06805094478545516</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -4035,19 +4035,19 @@
         <v>17409</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9851</v>
+        <v>10823</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>27387</v>
+        <v>29664</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02725154238860316</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01542031266578644</v>
+        <v>0.0169426330557603</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04287005620594311</v>
+        <v>0.04643489063893979</v>
       </c>
     </row>
     <row r="23">
@@ -4064,7 +4064,7 @@
         <v>247766</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>242439</v>
+        <v>242509</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>249851</v>
@@ -4073,7 +4073,7 @@
         <v>0.9916542726598265</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9703337791395715</v>
+        <v>0.970615731032086</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -4085,19 +4085,19 @@
         <v>373655</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>363986</v>
+        <v>362509</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>380124</v>
+        <v>380099</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9606047839077186</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9357477737767715</v>
+        <v>0.9319490552145452</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9772360302604105</v>
+        <v>0.9771713037558958</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>556</v>
@@ -4106,19 +4106,19 @@
         <v>621421</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>611443</v>
+        <v>609166</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>628979</v>
+        <v>628007</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9727484576113968</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9571299437940571</v>
+        <v>0.9535651093610602</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9845796873342136</v>
+        <v>0.9830573669442397</v>
       </c>
     </row>
     <row r="24">
@@ -4210,19 +4210,19 @@
         <v>15324</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9156</v>
+        <v>9094</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25517</v>
+        <v>24143</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0044719643820691</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002672004141995643</v>
+        <v>0.002653860685908679</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.007446310442123063</v>
+        <v>0.007045456988643975</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>90</v>
@@ -4231,19 +4231,19 @@
         <v>96559</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>79296</v>
+        <v>78437</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>118467</v>
+        <v>119064</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02716881458012581</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0223115472155917</v>
+        <v>0.02206987616510577</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03333290930711814</v>
+        <v>0.03350094007446795</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>105</v>
@@ -4252,19 +4252,19 @@
         <v>111884</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>92282</v>
+        <v>92732</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>136281</v>
+        <v>134868</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01602729165886525</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01321933288778764</v>
+        <v>0.01328377755450758</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01952213042737943</v>
+        <v>0.01931972429695555</v>
       </c>
     </row>
     <row r="26">
@@ -4281,19 +4281,19 @@
         <v>3411455</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3401262</v>
+        <v>3402636</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3417623</v>
+        <v>3417685</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9955280356179309</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9925536895578769</v>
+        <v>0.992954543011356</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9973279958580044</v>
+        <v>0.9973461393140913</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3205</v>
@@ -4302,19 +4302,19 @@
         <v>3457493</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3435585</v>
+        <v>3434988</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3474756</v>
+        <v>3475615</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9728311854198742</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9666670906928817</v>
+        <v>0.966499059925532</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9776884527844083</v>
+        <v>0.9779301238348941</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6399</v>
@@ -4323,19 +4323,19 @@
         <v>6868947</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6844550</v>
+        <v>6845963</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6888549</v>
+        <v>6888099</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9839727083411347</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9804778695726206</v>
+        <v>0.9806802757030444</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9867806671122122</v>
+        <v>0.9867162224454924</v>
       </c>
     </row>
     <row r="27">
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6876</v>
+        <v>6989</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004880088490991145</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01639335675247448</v>
+        <v>0.01666104877503716</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -4691,19 +4691,19 @@
         <v>5775</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1915</v>
+        <v>1956</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11681</v>
+        <v>12432</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01459325868294586</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004838897245287</v>
+        <v>0.004943359624519114</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02951582312293598</v>
+        <v>0.03141390580103834</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -4712,19 +4712,19 @@
         <v>7822</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3870</v>
+        <v>3721</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14519</v>
+        <v>15884</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009595435418001534</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004747422383506054</v>
+        <v>0.004564981460609175</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01780970573032526</v>
+        <v>0.01948403348173011</v>
       </c>
     </row>
     <row r="5">
@@ -4741,7 +4741,7 @@
         <v>417416</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>412587</v>
+        <v>412474</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -4750,7 +4750,7 @@
         <v>0.9951199115090088</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9836066432475254</v>
+        <v>0.9833389512249628</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4762,19 +4762,19 @@
         <v>389980</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>384074</v>
+        <v>383323</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>393840</v>
+        <v>393799</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9854067413170542</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.970484176877064</v>
+        <v>0.9685860941989617</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.995161102754713</v>
+        <v>0.9950566403754809</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>789</v>
@@ -4783,19 +4783,19 @@
         <v>807396</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>800699</v>
+        <v>799334</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>811348</v>
+        <v>811497</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9904045645819984</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9821902942696747</v>
+        <v>0.9805159665182693</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.995252577616494</v>
+        <v>0.9954350185393908</v>
       </c>
     </row>
     <row r="6">
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5088</v>
+        <v>5125</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001721405826893037</v>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008616034754782845</v>
+        <v>0.008679434222650767</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -4908,19 +4908,19 @@
         <v>10763</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5002</v>
+        <v>5784</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18575</v>
+        <v>19302</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01909961297483385</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008875604199823601</v>
+        <v>0.01026374135513467</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03296093942577909</v>
+        <v>0.03425138854982226</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -4929,19 +4929,19 @@
         <v>11780</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6786</v>
+        <v>6638</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20784</v>
+        <v>20527</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01020757557226915</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005880435263721682</v>
+        <v>0.005751683891157582</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01800939592118921</v>
+        <v>0.0177871425502601</v>
       </c>
     </row>
     <row r="8">
@@ -4958,7 +4958,7 @@
         <v>589480</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>585408</v>
+        <v>585371</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -4967,7 +4967,7 @@
         <v>0.9982785941731069</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9913839652452172</v>
+        <v>0.9913205657773493</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4979,19 +4979,19 @@
         <v>552781</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>544969</v>
+        <v>544242</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>558542</v>
+        <v>557760</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9809003870251661</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.967039060574221</v>
+        <v>0.9657486114501779</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9911243958001764</v>
+        <v>0.9897362586448654</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1134</v>
@@ -5000,19 +5000,19 @@
         <v>1142260</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1133256</v>
+        <v>1133513</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1147254</v>
+        <v>1147402</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9897924244277309</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9819906040788108</v>
+        <v>0.9822128574497394</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9941195647362784</v>
+        <v>0.9942483161088423</v>
       </c>
     </row>
     <row r="9">
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9477</v>
+        <v>8114</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002371710712504414</v>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01416386766746972</v>
+        <v>0.01212697718629128</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -5125,19 +5125,19 @@
         <v>14225</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8531</v>
+        <v>8530</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23561</v>
+        <v>22831</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02150854303799165</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01289915380484815</v>
+        <v>0.0128973467989885</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03562388972300839</v>
+        <v>0.03452013459040387</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -5146,19 +5146,19 @@
         <v>15812</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9312</v>
+        <v>9431</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25647</v>
+        <v>25634</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01188467601755628</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006999144578411444</v>
+        <v>0.007088420792810524</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01927619136684395</v>
+        <v>0.01926701009647785</v>
       </c>
     </row>
     <row r="11">
@@ -5175,7 +5175,7 @@
         <v>667510</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>659620</v>
+        <v>660983</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>669097</v>
@@ -5184,7 +5184,7 @@
         <v>0.9976282892874956</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9858361323325303</v>
+        <v>0.9878730228137063</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5196,19 +5196,19 @@
         <v>647161</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>637825</v>
+        <v>638555</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>652855</v>
+        <v>652856</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9784914569620083</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9643761102769915</v>
+        <v>0.9654798654095961</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9871008461951518</v>
+        <v>0.9871026532010115</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1287</v>
@@ -5217,19 +5217,19 @@
         <v>1314671</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1304836</v>
+        <v>1304849</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1321171</v>
+        <v>1321052</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9881153239824437</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9807238086331562</v>
+        <v>0.9807329899035221</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9930008554215887</v>
+        <v>0.9929115792071894</v>
       </c>
     </row>
     <row r="12">
@@ -5321,19 +5321,19 @@
         <v>3085</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8157</v>
+        <v>8586</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004774558214519271</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001554407559362027</v>
+        <v>0.001563410159291593</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01262523465240323</v>
+        <v>0.01329008510978565</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -5342,19 +5342,19 @@
         <v>14406</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7556</v>
+        <v>7701</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24170</v>
+        <v>24335</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02219427516496294</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0116410481710047</v>
+        <v>0.01186444705518477</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03723759434289966</v>
+        <v>0.03749117751666625</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -5363,19 +5363,19 @@
         <v>17490</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10497</v>
+        <v>9837</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28471</v>
+        <v>28115</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01350478462971415</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008104933864552419</v>
+        <v>0.007595299013136558</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02198340542629115</v>
+        <v>0.02170812540137936</v>
       </c>
     </row>
     <row r="14">
@@ -5392,19 +5392,19 @@
         <v>642963</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>637891</v>
+        <v>637462</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>645044</v>
+        <v>645038</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9952254417854808</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9873747653475967</v>
+        <v>0.9867099148902149</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.998445592440638</v>
+        <v>0.9984365898407084</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>589</v>
@@ -5413,19 +5413,19 @@
         <v>634671</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>624907</v>
+        <v>624742</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>641521</v>
+        <v>641376</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.977805724835037</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9627624056571006</v>
+        <v>0.9625088224833336</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9883589518289954</v>
+        <v>0.988135552944815</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1168</v>
@@ -5434,19 +5434,19 @@
         <v>1277635</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1266654</v>
+        <v>1267010</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1284628</v>
+        <v>1285288</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9864952153702858</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9780165945737088</v>
+        <v>0.9782918745986202</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9918950661354475</v>
+        <v>0.9924047009868633</v>
       </c>
     </row>
     <row r="15">
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7418</v>
+        <v>7413</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00446259356072551</v>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0155217832834361</v>
+        <v>0.01551024960370627</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -5559,19 +5559,19 @@
         <v>12756</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6499</v>
+        <v>6609</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23089</v>
+        <v>23399</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02567321696087984</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01308066535281509</v>
+        <v>0.01330163475758912</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04647117261235296</v>
+        <v>0.04709524098035305</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -5580,19 +5580,19 @@
         <v>14888</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7483</v>
+        <v>7529</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23607</v>
+        <v>24350</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01527387159607941</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007676197240423002</v>
+        <v>0.00772434668837755</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02421766378216638</v>
+        <v>0.02498013875999494</v>
       </c>
     </row>
     <row r="17">
@@ -5609,7 +5609,7 @@
         <v>475785</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>470500</v>
+        <v>470505</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>477918</v>
@@ -5618,7 +5618,7 @@
         <v>0.9955374064392745</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9844782167165639</v>
+        <v>0.9844897503962937</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -5630,19 +5630,19 @@
         <v>484093</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>473760</v>
+        <v>473450</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>490350</v>
+        <v>490240</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9743267830391201</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9535288273876473</v>
+        <v>0.9529047590196472</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9869193346471851</v>
+        <v>0.9866983652424108</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>844</v>
@@ -5651,19 +5651,19 @@
         <v>959879</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>951160</v>
+        <v>950417</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>967284</v>
+        <v>967238</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9847261284039206</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9757823362178337</v>
+        <v>0.9750198612400051</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.992323802759577</v>
+        <v>0.9922756533116225</v>
       </c>
     </row>
     <row r="18">
@@ -5755,19 +5755,19 @@
         <v>4959</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1925</v>
+        <v>1877</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11162</v>
+        <v>10520</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01483165746070553</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005758960936631766</v>
+        <v>0.005615482453555745</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03338581949293169</v>
+        <v>0.03146602665832611</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -5776,19 +5776,19 @@
         <v>11296</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6188</v>
+        <v>6094</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19471</v>
+        <v>20111</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02990143257291169</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01637981129573298</v>
+        <v>0.0161314886718222</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0515429024657585</v>
+        <v>0.05323698500680228</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -5797,19 +5797,19 @@
         <v>16254</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9773</v>
+        <v>10119</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25460</v>
+        <v>25929</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02282611381181883</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01372410521100104</v>
+        <v>0.01421019038919928</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0357536189043353</v>
+        <v>0.03641294137781931</v>
       </c>
     </row>
     <row r="20">
@@ -5826,19 +5826,19 @@
         <v>329371</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>323168</v>
+        <v>323810</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>332405</v>
+        <v>332453</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9851683425392944</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9666141805070683</v>
+        <v>0.9685339733416739</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9942410390633682</v>
+        <v>0.9943845175464443</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>343</v>
@@ -5847,19 +5847,19 @@
         <v>366466</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>358291</v>
+        <v>357651</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>371574</v>
+        <v>371668</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9700985674270883</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9484570975342417</v>
+        <v>0.9467630149931965</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9836201887042672</v>
+        <v>0.9838685113281778</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>663</v>
@@ -5868,19 +5868,19 @@
         <v>695838</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>686632</v>
+        <v>686163</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>702319</v>
+        <v>701973</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9771738861881811</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9642463810956643</v>
+        <v>0.9635870586221809</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9862758947889979</v>
+        <v>0.9857898096108009</v>
       </c>
     </row>
     <row r="21">
@@ -5972,19 +5972,19 @@
         <v>4269</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1665</v>
+        <v>1585</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9573</v>
+        <v>9385</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01661292140162278</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006477188153591914</v>
+        <v>0.006169049889452364</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03724751974021524</v>
+        <v>0.03651872041492975</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -5993,19 +5993,19 @@
         <v>17653</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9985</v>
+        <v>10221</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27648</v>
+        <v>27325</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0441131708410147</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02495269713077829</v>
+        <v>0.0255420760783733</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06909044660862189</v>
+        <v>0.06828347709920876</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -6014,19 +6014,19 @@
         <v>21922</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13674</v>
+        <v>13621</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>32888</v>
+        <v>33487</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03335866075547732</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02080740633411468</v>
+        <v>0.02072708140507349</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05004515349548794</v>
+        <v>0.05095672421287509</v>
       </c>
     </row>
     <row r="23">
@@ -6043,19 +6043,19 @@
         <v>252729</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>247425</v>
+        <v>247613</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>255333</v>
+        <v>255413</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9833870785983773</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9627524802597851</v>
+        <v>0.9634812795850706</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9935228118464081</v>
+        <v>0.9938309501105477</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>287</v>
@@ -6064,19 +6064,19 @@
         <v>382516</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>372521</v>
+        <v>372844</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>390184</v>
+        <v>389948</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9558868291589853</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9309095533913782</v>
+        <v>0.9317165229007897</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9750473028692217</v>
+        <v>0.9744579239216267</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>584</v>
@@ -6085,19 +6085,19 @@
         <v>635245</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>624279</v>
+        <v>623680</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>643493</v>
+        <v>643546</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9666413392445227</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.949954846504512</v>
+        <v>0.9490432757871244</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9791925936658853</v>
+        <v>0.9792729185949265</v>
       </c>
     </row>
     <row r="24">
@@ -6189,19 +6189,19 @@
         <v>19096</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12357</v>
+        <v>11322</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29226</v>
+        <v>28094</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005625791972198139</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003640441964778206</v>
+        <v>0.003335593122821811</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.008610046315213045</v>
+        <v>0.008276559108519611</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>81</v>
@@ -6210,19 +6210,19 @@
         <v>86874</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>70095</v>
+        <v>69247</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>107678</v>
+        <v>107504</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0245092683986497</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01977555351011983</v>
+        <v>0.01953636787609515</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03037864013392986</v>
+        <v>0.0303293833949761</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>100</v>
@@ -6231,19 +6231,19 @@
         <v>105970</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>89045</v>
+        <v>86069</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>127760</v>
+        <v>127268</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01527189569889133</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01283276076392343</v>
+        <v>0.01240378695154584</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01841215079889297</v>
+        <v>0.01834125632238676</v>
       </c>
     </row>
     <row r="26">
@@ -6260,19 +6260,19 @@
         <v>3375254</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3365124</v>
+        <v>3366256</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3381993</v>
+        <v>3383028</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9943742080278019</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9913899536847868</v>
+        <v>0.9917234408914811</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9963595580352218</v>
+        <v>0.9966644068771784</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3257</v>
@@ -6281,19 +6281,19 @@
         <v>3457668</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3436864</v>
+        <v>3437038</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3474447</v>
+        <v>3475295</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9754907316013502</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9696213598660705</v>
+        <v>0.9696706166050238</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9802244464898803</v>
+        <v>0.9804636321239049</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6469</v>
@@ -6302,19 +6302,19 @@
         <v>6832922</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6811132</v>
+        <v>6811624</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6849847</v>
+        <v>6852823</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9847281043011087</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.981587849201107</v>
+        <v>0.9816587436776133</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9871672392360765</v>
+        <v>0.9875962130484541</v>
       </c>
     </row>
     <row r="27">
@@ -6662,19 +6662,19 @@
         <v>9531</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2288</v>
+        <v>2256</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24526</v>
+        <v>22675</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02629204764055433</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006312373067359286</v>
+        <v>0.006224067586249311</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06765583964271536</v>
+        <v>0.06255099056006524</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -6683,19 +6683,19 @@
         <v>9531</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2260</v>
+        <v>2243</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24159</v>
+        <v>22268</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.01237325689245645</v>
+        <v>0.01237325689245644</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002934499615023177</v>
+        <v>0.002912161263683375</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03136277191416314</v>
+        <v>0.02890762687980063</v>
       </c>
     </row>
     <row r="5">
@@ -6725,19 +6725,19 @@
         <v>352981</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>337986</v>
+        <v>339837</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>360224</v>
+        <v>360256</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9737079523594457</v>
+        <v>0.9737079523594455</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9323441603572846</v>
+        <v>0.9374490094399346</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9936876269326407</v>
+        <v>0.9937759324137506</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>375</v>
@@ -6746,19 +6746,19 @@
         <v>760774</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>746146</v>
+        <v>748037</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>768045</v>
+        <v>768062</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9876267431075436</v>
+        <v>0.9876267431075435</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9686372280858371</v>
+        <v>0.9710923731201994</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9970655003849768</v>
+        <v>0.9970878387363167</v>
       </c>
     </row>
     <row r="6">
@@ -6863,19 +6863,19 @@
         <v>11295</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5663</v>
+        <v>6079</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19977</v>
+        <v>19982</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02254024612603059</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01130170830661985</v>
+        <v>0.01213252440835086</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03986833021216198</v>
+        <v>0.03987854973696885</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -6884,19 +6884,19 @@
         <v>11295</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5967</v>
+        <v>5751</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19682</v>
+        <v>19384</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01154892014122503</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006101735395456922</v>
+        <v>0.005880514914341489</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02012564105013661</v>
+        <v>0.01982095048537926</v>
       </c>
     </row>
     <row r="8">
@@ -6926,19 +6926,19 @@
         <v>489788</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>481106</v>
+        <v>481101</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>495420</v>
+        <v>495004</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9774597538739694</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9601316697878379</v>
+        <v>0.9601214502630312</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9886982916933801</v>
+        <v>0.9878674755916493</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>751</v>
@@ -6947,19 +6947,19 @@
         <v>966678</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>958291</v>
+        <v>958589</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>972006</v>
+        <v>972222</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9884510798587748</v>
+        <v>0.988451079858775</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9798743589498633</v>
+        <v>0.9801790495146205</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.993898264604543</v>
+        <v>0.9941194850856584</v>
       </c>
     </row>
     <row r="9">
@@ -7051,19 +7051,19 @@
         <v>5739</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2024</v>
+        <v>2045</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13369</v>
+        <v>12617</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00924452724988813</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003259980185853089</v>
+        <v>0.003293507031185978</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02153451261039479</v>
+        <v>0.02032303786396077</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -7072,19 +7072,19 @@
         <v>35759</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27134</v>
+        <v>26840</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47108</v>
+        <v>47158</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05753799905458845</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04365972300803059</v>
+        <v>0.04318724960356398</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07579813684136823</v>
+        <v>0.07587878115217628</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -7093,19 +7093,19 @@
         <v>41499</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31340</v>
+        <v>31614</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54272</v>
+        <v>54411</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0334039231712964</v>
+        <v>0.03340392317129639</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02522716145169081</v>
+        <v>0.02544735642206328</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04368574567374349</v>
+        <v>0.04379774706961531</v>
       </c>
     </row>
     <row r="11">
@@ -7122,19 +7122,19 @@
         <v>615098</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>607468</v>
+        <v>608220</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>618813</v>
+        <v>618792</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9907554727501119</v>
+        <v>0.9907554727501121</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9784654873896056</v>
+        <v>0.9796769621360394</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9967400198141471</v>
+        <v>0.996706492968814</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>797</v>
@@ -7143,19 +7143,19 @@
         <v>585729</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>574380</v>
+        <v>574330</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>594354</v>
+        <v>594648</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9424620009454115</v>
+        <v>0.9424620009454117</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9242018631586324</v>
+        <v>0.9241212188478238</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9563402769919693</v>
+        <v>0.9568127503964361</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1338</v>
@@ -7164,19 +7164,19 @@
         <v>1200826</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1188053</v>
+        <v>1187914</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1210985</v>
+        <v>1210711</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9665960768287039</v>
+        <v>0.9665960768287036</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9563142543262564</v>
+        <v>0.9562022529303845</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9747728385483091</v>
+        <v>0.9745526435779368</v>
       </c>
     </row>
     <row r="12">
@@ -7268,19 +7268,19 @@
         <v>3703</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9558</v>
+        <v>8948</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.005295111990001761</v>
+        <v>0.00529511199000176</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001191101320183234</v>
+        <v>0.001173854569783363</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01366877090699639</v>
+        <v>0.01279613002117865</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -7289,19 +7289,19 @@
         <v>42105</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32561</v>
+        <v>33223</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52768</v>
+        <v>54658</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05716992211661662</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04421018825015542</v>
+        <v>0.04510967832568959</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07164696956889816</v>
+        <v>0.07421332044596025</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -7310,19 +7310,19 @@
         <v>45808</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34977</v>
+        <v>36050</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56811</v>
+        <v>58694</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03190474024927479</v>
+        <v>0.03190474024927478</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02436078518527704</v>
+        <v>0.02510798485011949</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03956806016737272</v>
+        <v>0.040879260750696</v>
       </c>
     </row>
     <row r="14">
@@ -7339,19 +7339,19 @@
         <v>695581</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>689726</v>
+        <v>690336</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>698451</v>
+        <v>698463</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9947048880099981</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9863312290930035</v>
+        <v>0.9872038699788208</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9988088986798168</v>
+        <v>0.9988261454302165</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1077</v>
@@ -7360,19 +7360,19 @@
         <v>694390</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>683727</v>
+        <v>681837</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>703934</v>
+        <v>703272</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9428300778833832</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9283530304311017</v>
+        <v>0.9257866795540397</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9557898117498446</v>
+        <v>0.9548903216743104</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1737</v>
@@ -7381,19 +7381,19 @@
         <v>1389971</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1378968</v>
+        <v>1377085</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1400802</v>
+        <v>1399729</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9680952597507253</v>
+        <v>0.9680952597507251</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9604319398326272</v>
+        <v>0.9591207392493041</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.975639214814723</v>
+        <v>0.9748920151498804</v>
       </c>
     </row>
     <row r="15">
@@ -7485,19 +7485,19 @@
         <v>9716</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5192</v>
+        <v>5228</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16911</v>
+        <v>17073</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01599785112136639</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00854794132772793</v>
+        <v>0.008607420264011702</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0278446587223935</v>
+        <v>0.02811137877351748</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -7506,19 +7506,19 @@
         <v>16314</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11328</v>
+        <v>10880</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24874</v>
+        <v>23737</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0269176075136962</v>
+        <v>0.02691760751369621</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01869136522191391</v>
+        <v>0.01795212827008855</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0410413028458388</v>
+        <v>0.03916420319397006</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -7527,19 +7527,19 @@
         <v>26031</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19105</v>
+        <v>18624</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36579</v>
+        <v>36183</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02145201569674349</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01574433581520556</v>
+        <v>0.01534860120262118</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03014469859710715</v>
+        <v>0.02981859450128786</v>
       </c>
     </row>
     <row r="17">
@@ -7556,19 +7556,19 @@
         <v>597635</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>590440</v>
+        <v>590278</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>602159</v>
+        <v>602123</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9840021488786335</v>
+        <v>0.9840021488786337</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9721553412776068</v>
+        <v>0.9718886212264823</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9914520586722722</v>
+        <v>0.9913925797359883</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>972</v>
@@ -7577,19 +7577,19 @@
         <v>589767</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>581207</v>
+        <v>582344</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>594753</v>
+        <v>595201</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9730823924863036</v>
+        <v>0.9730823924863038</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.958958697154161</v>
+        <v>0.96083579680603</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9813086347780861</v>
+        <v>0.9820478717299114</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1622</v>
@@ -7598,19 +7598,19 @@
         <v>1187400</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1176852</v>
+        <v>1177248</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1194326</v>
+        <v>1194807</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9785479843032565</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9698553014028929</v>
+        <v>0.9701814054987118</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9842556641847946</v>
+        <v>0.9846513987973787</v>
       </c>
     </row>
     <row r="18">
@@ -7702,19 +7702,19 @@
         <v>11065</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6314</v>
+        <v>6322</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17486</v>
+        <v>17216</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.0272401926887674</v>
+        <v>0.02724019268876739</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01554323726187756</v>
+        <v>0.01556450067325541</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04304565987573526</v>
+        <v>0.04238272697703803</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -7723,19 +7723,19 @@
         <v>13984</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9335</v>
+        <v>9092</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19975</v>
+        <v>20844</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03198141342525903</v>
+        <v>0.03198141342525902</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02134878739267526</v>
+        <v>0.0207938453060193</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04568219671081533</v>
+        <v>0.04767152484713291</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -7744,19 +7744,19 @@
         <v>25049</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18055</v>
+        <v>18152</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33844</v>
+        <v>32941</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.02969804375109886</v>
+        <v>0.02969804375109887</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02140638385590236</v>
+        <v>0.02152098889955504</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04012478597538499</v>
+        <v>0.03905445652164579</v>
       </c>
     </row>
     <row r="20">
@@ -7773,19 +7773,19 @@
         <v>395146</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>388725</v>
+        <v>388995</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>399897</v>
+        <v>399889</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9727598073112326</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9569543401242645</v>
+        <v>0.9576172730229611</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9844567627381214</v>
+        <v>0.9844354993267446</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>798</v>
@@ -7794,19 +7794,19 @@
         <v>423268</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>417277</v>
+        <v>416408</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>427917</v>
+        <v>428160</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9680185865747409</v>
+        <v>0.968018586574741</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9543178032891847</v>
+        <v>0.9523284751528676</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9786512126073249</v>
+        <v>0.9792061546939811</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1350</v>
@@ -7815,19 +7815,19 @@
         <v>818414</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>809619</v>
+        <v>810522</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>825408</v>
+        <v>825311</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.970301956248901</v>
+        <v>0.9703019562489011</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9598752140246152</v>
+        <v>0.9609455434783544</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9785936161440976</v>
+        <v>0.9784790111004451</v>
       </c>
     </row>
     <row r="21">
@@ -7919,19 +7919,19 @@
         <v>13529</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8810</v>
+        <v>8538</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20955</v>
+        <v>20594</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04380721762281434</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.028526093750049</v>
+        <v>0.02764664885401671</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06785244921721315</v>
+        <v>0.06668397284744858</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>76</v>
@@ -7940,19 +7940,19 @@
         <v>39495</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31122</v>
+        <v>31499</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50339</v>
+        <v>49312</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.08517737322848203</v>
+        <v>0.08517737322848201</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06711849694658786</v>
+        <v>0.06793209361865082</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1085641610848566</v>
+        <v>0.1063487976450517</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>98</v>
@@ -7961,19 +7961,19 @@
         <v>53024</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>43440</v>
+        <v>43070</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>64623</v>
+        <v>64755</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06863861413756088</v>
+        <v>0.06863861413756089</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05623267476522803</v>
+        <v>0.05575359336663539</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08365370893268834</v>
+        <v>0.08382341909206857</v>
       </c>
     </row>
     <row r="23">
@@ -7990,19 +7990,19 @@
         <v>295302</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>287876</v>
+        <v>288237</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>300021</v>
+        <v>300293</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9561927823771856</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9321475507827869</v>
+        <v>0.9333160271525515</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9714739062499511</v>
+        <v>0.9723533511459834</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>803</v>
@@ -8011,19 +8011,19 @@
         <v>424186</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>413342</v>
+        <v>414369</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>432559</v>
+        <v>432182</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.914822626771518</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8914358389151432</v>
+        <v>0.8936512023549483</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.932881503053412</v>
+        <v>0.9320679063813493</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1238</v>
@@ -8032,19 +8032,19 @@
         <v>719488</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>707889</v>
+        <v>707757</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>729072</v>
+        <v>729442</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.931361385862439</v>
+        <v>0.9313613858624391</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9163462910673116</v>
+        <v>0.9161765809079313</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9437673252347721</v>
+        <v>0.9442464066333642</v>
       </c>
     </row>
     <row r="24">
@@ -8136,19 +8136,19 @@
         <v>43753</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33237</v>
+        <v>33261</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>57042</v>
+        <v>55962</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01240439304749517</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009423033397550198</v>
+        <v>0.009429766511322778</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01617218722224698</v>
+        <v>0.01586575757239109</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>254</v>
@@ -8157,19 +8157,19 @@
         <v>168484</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>144723</v>
+        <v>148909</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>189991</v>
+        <v>193056</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.04518691758360206</v>
+        <v>0.04518691758360205</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.038814463212143</v>
+        <v>0.03993715915549653</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05095528284109851</v>
+        <v>0.0517771648545118</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>313</v>
@@ -8178,19 +8178,19 @@
         <v>212236</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>188376</v>
+        <v>187197</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>239407</v>
+        <v>237790</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02925061775368004</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0259621351950043</v>
+        <v>0.02579970112851944</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03299524051875944</v>
+        <v>0.03277247341510115</v>
       </c>
     </row>
     <row r="26">
@@ -8207,19 +8207,19 @@
         <v>3483444</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3470155</v>
+        <v>3471235</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3493960</v>
+        <v>3493936</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9875956069525049</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9838278127777536</v>
+        <v>0.9841342424276089</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.99057696660245</v>
+        <v>0.9905702334886772</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5099</v>
@@ -8228,19 +8228,19 @@
         <v>3560108</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3538601</v>
+        <v>3535536</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3583869</v>
+        <v>3579683</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.954813082416398</v>
+        <v>0.9548130824163978</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9490447171589015</v>
+        <v>0.9482228351454883</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9611855367878571</v>
+        <v>0.9600628408445037</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8411</v>
@@ -8249,19 +8249,19 @@
         <v>7043553</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7016382</v>
+        <v>7017999</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7067413</v>
+        <v>7068592</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.97074938224632</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9670047594812405</v>
+        <v>0.9672275265848985</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9740378648049957</v>
+        <v>0.9742002988714806</v>
       </c>
     </row>
     <row r="27">
